--- a/Test_HSE_EX.xlsx
+++ b/Test_HSE_EX.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#e377c2</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#e377c2</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#e377c2</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#e377c2</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4043,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>#2ca02c</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -4145,7 +4145,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -4757,7 +4757,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#7f7f7f</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#e377c2</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#e377c2</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#e377c2</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -5845,7 +5845,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#ff7f0e</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>#ff7f0e</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#d62728</t>
         </is>
       </c>
     </row>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>#17becf</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#1f77b4</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>#e377c2</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>#d62728</t>
+          <t>#9467bd</t>
         </is>
       </c>
     </row>
@@ -7035,7 +7035,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#8c564b</t>
         </is>
       </c>
     </row>
@@ -7171,7 +7171,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -7239,7 +7239,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>#7f7f7f</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>#bcbd22</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -7409,7 +7409,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>#9467bd</t>
+          <t>#bcbd22</t>
         </is>
       </c>
     </row>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>#1f77b4</t>
+          <t>#2ca02c</t>
         </is>
       </c>
     </row>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -7817,7 +7817,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>#8c564b</t>
+          <t>#17becf</t>
         </is>
       </c>
     </row>
